--- a/Recycling/Met_rec/metrec_Max_target_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Max_target_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>95388.41488819556</v>
+        <v>95388.41488819558</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>634503.6093493011</v>
+        <v>634503.609349301</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>806653.9762728699</v>
+        <v>806653.9762728701</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1998651.653451596</v>
+        <v>1998651.653451595</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>909749.2385804427</v>
+        <v>909749.2385804425</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>879339.248881256</v>
+        <v>879339.2488812557</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_target_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Max_target_Min.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.5988371019869603</v>
+        <v>0.5988371019869602</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0.3634155134603887</v>
+        <v>0.3634155134603886</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7.415291509010417</v>
+        <v>7.415291509010418</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8.726348775973383</v>
+        <v>8.726348775973385</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>34.63031767977922</v>
+        <v>34.63031767977921</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>59.12699217265128</v>
+        <v>59.12699217265126</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>356.6340414490326</v>
+        <v>356.6340414490327</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4008,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>48.92528799360775</v>
+        <v>48.92528799360776</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5232,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>810.1759844858293</v>
+        <v>810.1759844858292</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6456,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7299.044634985552</v>
+        <v>7299.044634985554</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>51430.28461625284</v>
+        <v>51430.28461625282</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8424,7 +8424,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>88803.21299946994</v>
+        <v>88803.21299946992</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9240,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>133021.5964471838</v>
+        <v>133021.5964471837</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9720,7 +9720,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>602650.5211193803</v>
+        <v>602650.5211193804</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>409861.4888089876</v>
+        <v>409861.4888089875</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10216,7 +10216,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>769338.6797665018</v>
+        <v>769338.6797665019</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11396,7 +11396,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1302875.139287563</v>
+        <v>1302875.139287564</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13276,7 +13276,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6243040.469770866</v>
+        <v>6243040.469770865</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14004,7 +14004,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4413707.722277284</v>
+        <v>4413707.722277285</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14660,7 +14660,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2476878.033296141</v>
+        <v>2476878.03329614</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8453586.051202076</v>
+        <v>8453586.051202074</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15840,7 +15840,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4185016.418041629</v>
+        <v>4185016.41804163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17472,7 +17472,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3276998.597656587</v>
+        <v>3276998.597656586</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8916177.343900217</v>
+        <v>8916177.343900219</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17676,7 +17676,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3273821.239822955</v>
+        <v>3273821.239822954</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18376,7 +18376,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9498895.658643767</v>
+        <v>9498895.658643769</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20372,7 +20372,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2836284.069557518</v>
+        <v>2836284.069557517</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20824,7 +20824,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>12831174.14208374</v>
+        <v>12831174.14208373</v>
       </c>
     </row>
     <row r="13" spans="1:4">
